--- a/doc/wh.xlsx
+++ b/doc/wh.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="88">
   <si>
     <t>K线形态</t>
   </si>
@@ -266,40 +266,28 @@
     <t>缺BID1, ASK1等字段, 文华中貌似也不正常</t>
   </si>
   <si>
-    <t>貌似差别较大</t>
-  </si>
-  <si>
     <t>SUM函数不支持从头累加</t>
   </si>
   <si>
     <t>缺AVEDEV函数</t>
   </si>
   <si>
-    <t>缺COLORSTICK输出</t>
-  </si>
-  <si>
-    <t>缺BACKGROUNDSTYLE(1)支持</t>
-  </si>
-  <si>
     <t>MI</t>
   </si>
   <si>
-    <t>缺COUNT支持</t>
-  </si>
-  <si>
-    <t>缺FORCAST, BARPOS支持</t>
-  </si>
-  <si>
-    <t>缺VOLUMESTICK绘图类型</t>
-  </si>
-  <si>
     <t>缺CCL函数</t>
   </si>
   <si>
     <t>缺DUALVOLUME函数, 缺DRAWCOLUMNCHART绘图</t>
   </si>
   <si>
-    <t>缺OPISTICK绘图类型</t>
+    <t>双轴问题未自动处理</t>
+  </si>
+  <si>
+    <t>轴问题未自动处理</t>
+  </si>
+  <si>
+    <t>数据有差别</t>
   </si>
 </sst>
 </file>
@@ -674,13 +662,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C710D34-7083-4725-93B4-3114CBA6141F}">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="59.42578125" customWidth="1"/>
   </cols>
@@ -766,7 +754,10 @@
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="3">
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
         <v>1</v>
       </c>
     </row>
@@ -793,7 +784,10 @@
       <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="3">
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
         <v>1</v>
       </c>
     </row>
@@ -860,7 +854,10 @@
       <c r="B22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="3">
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3">
         <v>1</v>
       </c>
     </row>
@@ -891,18 +888,18 @@
         <v>1</v>
       </c>
       <c r="E25" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="2">
-        <v>1</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -937,7 +934,7 @@
         <v>30</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -956,15 +953,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
+    <row r="33" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>34</v>
       </c>
@@ -972,21 +975,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
+    <row r="35" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="2">
-        <v>1</v>
-      </c>
-      <c r="D35" s="2">
-        <v>1</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>36</v>
       </c>
@@ -994,18 +994,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
+    <row r="37" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="2">
-        <v>1</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>38</v>
       </c>
@@ -1013,18 +1013,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
+    <row r="39" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F39" s="1">
-        <v>1</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>40</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
         <v>41</v>
       </c>
@@ -1043,15 +1043,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F42" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
         <v>42</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>43</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
         <v>44</v>
       </c>
@@ -1075,15 +1075,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
+    <row r="46" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="3">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
         <v>46</v>
       </c>
@@ -1091,7 +1094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
         <v>47</v>
       </c>
@@ -1155,12 +1158,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
+    <row r="56" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>86</v>
+      <c r="C56" s="3">
+        <v>1</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1176,7 +1182,7 @@
         <v>57</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1184,7 +1190,7 @@
         <v>58</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -1192,12 +1198,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
+    <row r="61" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>88</v>
+      <c r="C61" s="3">
+        <v>1</v>
+      </c>
+      <c r="D61" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1221,18 +1230,21 @@
         <v>63</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F65" s="1">
-        <v>1</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>88</v>
+      <c r="C65" s="2">
+        <v>1</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1240,7 +1252,7 @@
         <v>65</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1251,12 +1263,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="1" t="s">
+    <row r="68" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G68" s="1" t="s">
-        <v>91</v>
+      <c r="C68" s="2">
+        <v>1</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
